--- a/_Out/NFDataCfg/Excel_Ini/GuildJob.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/GuildJob.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -180,17 +180,20 @@
   <si>
     <t>Upload</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -198,7 +201,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -211,7 +214,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -433,7 +436,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -727,26 +730,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="28.19921875" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -796,7 +799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="2" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -846,7 +849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -896,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="2" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -946,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -996,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="13.5">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -1096,215 +1099,215 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="13.5">
       <c r="A8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="13.5">
+      <c r="A9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:16" s="4" customFormat="1">
+      <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P10" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="15">
-        <v>1</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>1</v>
-      </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="15">
-        <v>1</v>
-      </c>
-      <c r="N10" s="15">
-        <v>1</v>
-      </c>
-      <c r="O10" s="15">
-        <v>0</v>
-      </c>
-      <c r="P10" s="15">
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15">
+        <v>1</v>
+      </c>
+      <c r="M11" s="15">
+        <v>1</v>
+      </c>
+      <c r="N11" s="15">
+        <v>1</v>
+      </c>
+      <c r="O11" s="15">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B12" s="15">
         <v>2</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C12" s="15">
         <v>2</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15">
-        <v>1</v>
-      </c>
-      <c r="L11" s="15">
-        <v>1</v>
-      </c>
-      <c r="M11" s="15">
-        <v>1</v>
-      </c>
-      <c r="N11" s="15">
-        <v>1</v>
-      </c>
-      <c r="O11" s="15">
-        <v>1</v>
-      </c>
-      <c r="P11" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="15">
-        <v>3</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
@@ -1328,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="15">
         <v>1</v>
@@ -1346,15 +1349,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="15">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15">
         <v>4</v>
-      </c>
-      <c r="C13" s="15">
-        <v>-1</v>
       </c>
       <c r="D13" s="15">
         <v>0</v>
@@ -1369,13 +1372,13 @@
         <v>43</v>
       </c>
       <c r="H13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="15">
         <v>0</v>
@@ -1384,23 +1387,73 @@
         <v>0</v>
       </c>
       <c r="M13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="15">
         <v>1</v>
       </c>
       <c r="P13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="15">
+        <v>4</v>
+      </c>
+      <c r="C14" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1</v>
+      </c>
+      <c r="P14" s="15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:P8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:P9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
